--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Text Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F8D5A4-88C1-454A-B758-FB44B003D7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00806CCB-E072-4C64-987B-A4F37EA75072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Krish Naik" sheetId="1" r:id="rId1"/>
+    <sheet name="UnfoldDataScience" sheetId="2" r:id="rId2"/>
+    <sheet name="IndianAIProduction" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Playlist Titlle</t>
   </si>
@@ -75,9 +77,6 @@
     <t>https://www.youtube.com/playlist?list=PLZoTAELRMXVPwYGE2PXD3x0bfKnR0cJjN</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16</t>
-  </si>
-  <si>
     <t>MySQL Playlist</t>
   </si>
   <si>
@@ -124,13 +123,34 @@
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PLZoTAELRMXVMhVyr3Ri9IQ-t5QPBtxzJO</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20</t>
+  </si>
+  <si>
+    <t>PlayList Title</t>
+  </si>
+  <si>
+    <t>Natural Language Processing Playlist</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLmPJQXJiMoUUSqSV7jcqGiiypGmQ_ogtb</t>
+  </si>
+  <si>
+    <t>Machine Learning and Deep Learning</t>
+  </si>
+  <si>
+    <t>Machine Learning And Deep Learning</t>
+  </si>
+  <si>
+    <t>1,2,3,4,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +174,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +218,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -188,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,6 +250,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -485,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,128 +560,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>11</v>
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
-        <v>7</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
@@ -627,42 +683,58 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="C15" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
@@ -695,21 +767,495 @@
       <c r="C25" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{ED09518C-45A0-43B1-8E60-9122400EEEA1}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{AFF8B50C-DB7E-40F3-8A11-738FBF7473A5}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{16ED1C7B-A14E-4096-B6DB-F0641C1E2DEB}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{1CF4D8DE-DBBF-46CB-82B1-88708C34619D}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{1E62C109-D385-4EC5-9CDD-A50D14C356E3}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{FD9998ED-4125-424C-AD2D-27E200A4A501}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{AFD08C97-CBB6-40F9-B2EA-2839F53E0F30}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{F0AD7323-957D-40AC-AC4A-4A416C28C60F}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{72769CE7-614F-4693-A1A5-D5A36AF9E12F}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{62C75D1A-25A4-4C9C-AEED-39973372DBFB}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{8E5FCB67-144A-469E-9C83-7F088E43FAFF}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{3E2A5EC8-0636-4312-90B1-E159B6C814CF}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{ED09518C-45A0-43B1-8E60-9122400EEEA1}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{AFF8B50C-DB7E-40F3-8A11-738FBF7473A5}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{16ED1C7B-A14E-4096-B6DB-F0641C1E2DEB}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{1CF4D8DE-DBBF-46CB-82B1-88708C34619D}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{1E62C109-D385-4EC5-9CDD-A50D14C356E3}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{FD9998ED-4125-424C-AD2D-27E200A4A501}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{AFD08C97-CBB6-40F9-B2EA-2839F53E0F30}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{F0AD7323-957D-40AC-AC4A-4A416C28C60F}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{72769CE7-614F-4693-A1A5-D5A36AF9E12F}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{62C75D1A-25A4-4C9C-AEED-39973372DBFB}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{8E5FCB67-144A-469E-9C83-7F088E43FAFF}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{3E2A5EC8-0636-4312-90B1-E159B6C814CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E1BAD9-978E-4A10-B8A2-F061C451F088}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{E6A9AD4B-6B52-47DA-A67B-B7B3B0BB5BEE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843FE81B-FB7C-4EA7-BF0A-DE16B1A445B8}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{BE5A960E-2215-4AEC-95B0-BC478827A57C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Text Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00806CCB-E072-4C64-987B-A4F37EA75072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43390227-FE9E-4780-BFD1-11FF025CBFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Krish Naik" sheetId="1" r:id="rId1"/>
     <sheet name="UnfoldDataScience" sheetId="2" r:id="rId2"/>
     <sheet name="IndianAIProduction" sheetId="4" r:id="rId3"/>
+    <sheet name="CampuX" sheetId="5" r:id="rId4"/>
+    <sheet name="Murtaza's Workshop - Robotics" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Playlist Titlle</t>
   </si>
@@ -62,9 +64,6 @@
     <t>https://www.youtube.com/playlist?list=PLZoTAELRMXVMdJ5sqbCK2LiM0HhQVWNzm</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,20</t>
-  </si>
-  <si>
     <t>Complete Deep Learning</t>
   </si>
   <si>
@@ -125,9 +124,6 @@
     <t>https://www.youtube.com/playlist?list=PLZoTAELRMXVMhVyr3Ri9IQ-t5QPBtxzJO</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20</t>
-  </si>
-  <si>
     <t>PlayList Title</t>
   </si>
   <si>
@@ -143,7 +139,115 @@
     <t>Machine Learning And Deep Learning</t>
   </si>
   <si>
-    <t>1,2,3,4,</t>
+    <t>1 to 10,11,</t>
+  </si>
+  <si>
+    <t>1 to 20,</t>
+  </si>
+  <si>
+    <t>1 to 11,20</t>
+  </si>
+  <si>
+    <t>Machine Learning Metrics</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLKnIA16_RmvZJGOqRjqhOhTEmQW3vDdbQ</t>
+  </si>
+  <si>
+    <t>Regularization</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLKnIA16_RmvZuSEZ24Wlm13QpsfLlJBM4</t>
+  </si>
+  <si>
+    <t>Natural Language Processing(NLP)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLKnIA16_RmvZo7fp5kkIth6nRTeQQsjfX</t>
+  </si>
+  <si>
+    <t>100 Days of Deep Learning</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLKnIA16_RmvYuZauWaPlRTC54KxSNLtNn</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks (CNNs)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLKnIA16_Rmvb6SAVpWjm0ZYPHo_KRXljU</t>
+  </si>
+  <si>
+    <t>Advance Statistics (ML Roadmap 2022)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLKnIA16_Rmvbe9wDJGXc28KKr6lp5Jn2g</t>
+  </si>
+  <si>
+    <t>100 Days of Machine Learning</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLKnIA16_Rmvbr7zKYQuBfsVkjoLcJgxHH</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>Machine Learning Projects</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLKnIA16_RmvY5eP91BGPa0vXUYmIdtfPQ</t>
+  </si>
+  <si>
+    <t>OpenCV Python Tutorials for Beginners 2020</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,14</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLMoSUbG1Q_r_sc0x7ndCsqdIkL7dwrmNF</t>
+  </si>
+  <si>
+    <t>Angle Finder OpenCV</t>
+  </si>
+  <si>
+    <t>Yolo v3 | OpenCV Python</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>Augmented Reality using OpenCV Python (2020)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLMoSUbG1Q_r8vFXoAZPKyj-WLcD2aGoNZ</t>
+  </si>
+  <si>
+    <t>1 to 3</t>
+  </si>
+  <si>
+    <t>Advance Computer Vision</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLMoSUbG1Q_r8nz4C5Yvd17KaXy8p0ufPH</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLMoSUbG1Q_r-JNMQ0zJmv6SnXwgbA8JJp</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLMoSUbG1Q_r9p7iYBg6z6tZP002DAJ41H</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLMoSUbG1Q_r-7xWY3Oh2yOFp3EoxNOphH</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>Computer Vision Projects</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLMoSUbG1Q_r8jFS04rot-3NzidnV54Z2q</t>
   </si>
 </sst>
 </file>
@@ -238,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,16 +356,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +656,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,20 +668,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -620,29 +728,29 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>16</v>
@@ -650,10 +758,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>11</v>
@@ -661,10 +769,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>151</v>
@@ -672,10 +780,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
@@ -683,10 +791,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>7</v>
@@ -694,10 +802,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -705,10 +813,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C13" s="2">
         <v>8</v>
@@ -716,10 +824,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -727,10 +835,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C15" s="2">
         <v>42</v>
@@ -793,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E1BAD9-978E-4A10-B8A2-F061C451F088}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,24 +914,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -840,16 +948,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1031,36 +1139,36 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1077,10 +1185,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>12</v>
@@ -1258,4 +1366,483 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E2F09C-1B3C-4616-A2B4-232FE8C2394F}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{43E30678-C0FB-400E-939F-0C3478FB4F9F}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{C9CA59B9-CB12-4035-8E32-9A7D89CEEC24}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{BAB53A98-F328-4364-93DB-EC7A13A87011}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{7E91FDF3-55D8-4A15-920C-3CB060282388}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{B4FA20C7-A756-4DEA-A70D-D6C5FEE13B49}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{F0E5D832-94DD-4D2C-9232-9174E63F3D9A}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{55686960-B95B-4AA3-8B97-5606378DED5D}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{C549AAD4-3EA8-4897-8164-89ACC3189B42}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8645A614-CAED-4BD0-9C9A-DAD32DBD87CD}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2">
+        <v>33</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{6E22404C-5B86-44C5-A847-134B5AD0FACB}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{5BE94F4B-0031-486E-991D-ACAD5D234DDD}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{13C6318F-85FC-40B9-BB84-4BD38786EBEB}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{A03446D8-7A6A-4089-B83B-C15398AED3D9}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{4972216E-5032-4FE0-A8BC-7A9E7A31B423}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{0FD8DE1B-60E7-4EC4-AEAB-E89A7FE8B1FF}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{02C1AC40-DB16-44EC-984C-64716B475778}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Text Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43390227-FE9E-4780-BFD1-11FF025CBFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EFE237-C3A7-4EBB-A948-A10C082F8837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Krish Naik" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>1 to 20,</t>
   </si>
   <si>
-    <t>1 to 11,20</t>
-  </si>
-  <si>
     <t>Machine Learning Metrics</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PLMoSUbG1Q_r8jFS04rot-3NzidnV54Z2q</t>
+  </si>
+  <si>
+    <t>1 to 15,20</t>
   </si>
 </sst>
 </file>
@@ -356,6 +356,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,10 +370,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,20 +668,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -728,7 +728,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -914,20 +914,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1151,20 +1151,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1372,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E2F09C-1B3C-4616-A2B4-232FE8C2394F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1386,20 +1386,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1420,25 +1420,25 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>7</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C7" s="2">
         <v>28</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C10" s="2">
         <v>109</v>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1634,20 +1634,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1668,167 +1668,167 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C10" s="2">
         <v>33</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="11"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="11"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="11"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="11"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="11"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="11"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="11"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="11"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="11"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="11"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="11"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="11"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="11"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="11"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="11"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="11"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="11"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="11"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="11"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="11"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E32" s="11"/>
+      <c r="E32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,28 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Text Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EFE237-C3A7-4EBB-A948-A10C082F8837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81E9975-2175-45D1-AA21-D66AB105B4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Krish Naik" sheetId="1" r:id="rId1"/>
-    <sheet name="UnfoldDataScience" sheetId="2" r:id="rId2"/>
-    <sheet name="IndianAIProduction" sheetId="4" r:id="rId3"/>
-    <sheet name="CampuX" sheetId="5" r:id="rId4"/>
-    <sheet name="Murtaza's Workshop - Robotics" sheetId="6" r:id="rId5"/>
+    <sheet name="Krish Naik Hindi" sheetId="7" r:id="rId2"/>
+    <sheet name="UnfoldDataScience" sheetId="2" r:id="rId3"/>
+    <sheet name="IndianAIProduction" sheetId="4" r:id="rId4"/>
+    <sheet name="CampuX" sheetId="5" r:id="rId5"/>
+    <sheet name="Murtaza's Workshop - Robotics" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>Playlist Titlle</t>
   </si>
@@ -248,6 +257,15 @@
   </si>
   <si>
     <t>1 to 15,20</t>
+  </si>
+  <si>
+    <t>Machine Learning Playlist</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLTDARY42LDV7WGmlzZtY-w9pemyPrKNUZ</t>
+  </si>
+  <si>
+    <t>11,21,</t>
   </si>
 </sst>
 </file>
@@ -655,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,6 +916,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962DCF12-8601-4E71-892E-F40F360EA4C1}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{A1CAC83D-A5C8-4618-9B63-3F5D6B4874AF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E1BAD9-978E-4A10-B8A2-F061C451F088}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -1134,7 +1283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843FE81B-FB7C-4EA7-BF0A-DE16B1A445B8}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -1368,7 +1517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E2F09C-1B3C-4616-A2B4-232FE8C2394F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -1616,7 +1765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8645A614-CAED-4BD0-9C9A-DAD32DBD87CD}">
   <dimension ref="A1:E32"/>
   <sheetViews>

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Text Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81E9975-2175-45D1-AA21-D66AB105B4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679A94FB-A973-44B2-B39C-305447C5827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Krish Naik" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
   <si>
     <t>Playlist Titlle</t>
   </si>
@@ -266,6 +266,18 @@
   </si>
   <si>
     <t>11,21,</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLKnIA16_RmvYXWH_E6PuVLLHHTWXwwDN7</t>
+  </si>
+  <si>
+    <t>SQL for Data Science</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLKnIA16_RmvYun1_5r9Fb4eQigioPB7yn</t>
   </si>
 </sst>
 </file>
@@ -321,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +358,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -360,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,6 +394,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -673,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,20 +707,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -919,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962DCF12-8601-4E71-892E-F40F360EA4C1}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -933,20 +954,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1063,20 +1084,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1300,20 +1321,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1522,33 +1543,33 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="46.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1578,9 +1599,11 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1663,12 +1686,26 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -1759,9 +1796,11 @@
     <hyperlink ref="B9" r:id="rId6" xr:uid="{F0E5D832-94DD-4D2C-9232-9174E63F3D9A}"/>
     <hyperlink ref="B10" r:id="rId7" xr:uid="{55686960-B95B-4AA3-8B97-5606378DED5D}"/>
     <hyperlink ref="B11" r:id="rId8" xr:uid="{C549AAD4-3EA8-4897-8164-89ACC3189B42}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{B383C653-1233-4F2E-B849-D2BD6A424300}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{3DBB4695-E425-4700-B72A-B6AB2A32CB20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1783,20 +1822,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Text Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679A94FB-A973-44B2-B39C-305447C5827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C64A6-24D5-4ED5-9F8E-F82783AEC556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Krish Naik" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
   <si>
     <t>Playlist Titlle</t>
   </si>
@@ -278,13 +278,37 @@
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PLKnIA16_RmvYun1_5r9Fb4eQigioPB7yn</t>
+  </si>
+  <si>
+    <t>100 days of python programmings</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLKnIA16_Rmvb1RYR-iTA_hzckhdONtSW4</t>
+  </si>
+  <si>
+    <t>Data Science Roodmap</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLKnIA16_RmvZGK-NF2YovesQ96HfUrKEw</t>
+  </si>
+  <si>
+    <t>Probability Basics (ML Roadmap 2022)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLKnIA16_RmvYNbPMB6ofVLRCcTPUAftdY</t>
+  </si>
+  <si>
+    <t>Machine Learning Interview Questions</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLKnIA16_Rmva_ZdY31wpEICG0KHnvIhu2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +352,14 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,6 +441,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -694,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1540,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E2F09C-1B3C-4616-A2B4-232FE8C2394F}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,55 +1708,83 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1782,6 +1845,14 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1795,12 +1866,16 @@
     <hyperlink ref="B8" r:id="rId5" xr:uid="{B4FA20C7-A756-4DEA-A70D-D6C5FEE13B49}"/>
     <hyperlink ref="B9" r:id="rId6" xr:uid="{F0E5D832-94DD-4D2C-9232-9174E63F3D9A}"/>
     <hyperlink ref="B10" r:id="rId7" xr:uid="{55686960-B95B-4AA3-8B97-5606378DED5D}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{C549AAD4-3EA8-4897-8164-89ACC3189B42}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{B383C653-1233-4F2E-B849-D2BD6A424300}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{3DBB4695-E425-4700-B72A-B6AB2A32CB20}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{C549AAD4-3EA8-4897-8164-89ACC3189B42}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{B383C653-1233-4F2E-B849-D2BD6A424300}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{3DBB4695-E425-4700-B72A-B6AB2A32CB20}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{39376B3A-1C16-4219-B9EE-CAAA0DBB526E}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{1CF6FC93-DF4C-4BEA-AAC1-330CDF0AE2F8}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{92BE5979-EA26-42FA-9694-C9C7DB3AC509}"/>
+    <hyperlink ref="B11" r:id="rId14" xr:uid="{B5F29DE8-354D-4747-A381-F97F93333D9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Text Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C64A6-24D5-4ED5-9F8E-F82783AEC556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47ACACB-60A3-4B24-8AEE-299AC7335B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
   <si>
     <t>Playlist Titlle</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PLKnIA16_Rmva_ZdY31wpEICG0KHnvIhu2</t>
+  </si>
+  <si>
+    <t>1,2,</t>
   </si>
 </sst>
 </file>
@@ -431,6 +434,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,9 +447,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -742,20 +745,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -989,20 +992,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1119,20 +1122,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1356,20 +1359,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1578,7 +1581,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,20 +1594,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1775,8 +1778,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1785,64 +1788,67 @@
       <c r="C17" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="C32" s="2"/>
     </row>
@@ -1897,20 +1903,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Text Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47ACACB-60A3-4B24-8AEE-299AC7335B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF9A633-9ED5-42BB-ABD3-2A8FF45FB00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Text Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF9A633-9ED5-42BB-ABD3-2A8FF45FB00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0901B02-6D32-40CD-9D00-248F77503146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Krish Naik" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t>Playlist Titlle</t>
   </si>
@@ -256,9 +256,6 @@
     <t>https://www.youtube.com/playlist?list=PLMoSUbG1Q_r8jFS04rot-3NzidnV54Z2q</t>
   </si>
   <si>
-    <t>1 to 15,20</t>
-  </si>
-  <si>
     <t>Machine Learning Playlist</t>
   </si>
   <si>
@@ -305,6 +302,27 @@
   </si>
   <si>
     <t>1,2,</t>
+  </si>
+  <si>
+    <t>GitHub Repository Link</t>
+  </si>
+  <si>
+    <t>https://github.com/campusx-official/100-days-of-machine-learning</t>
+  </si>
+  <si>
+    <t>1 to 4,16,</t>
+  </si>
+  <si>
+    <t>31,32,</t>
+  </si>
+  <si>
+    <t>Enough</t>
+  </si>
+  <si>
+    <t>1 to 22</t>
+  </si>
+  <si>
+    <t>1,2,5,</t>
   </si>
 </sst>
 </file>
@@ -368,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +417,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -413,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,6 +459,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -730,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,25 +769,26 @@
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="4" max="4" width="44.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -776,8 +804,11 @@
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -794,7 +825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -805,10 +836,10 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -822,7 +853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -833,7 +864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -844,7 +875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -855,7 +886,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -866,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -877,7 +908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -888,7 +919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -899,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -910,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -921,7 +952,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -976,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962DCF12-8601-4E71-892E-F40F360EA4C1}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,25 +1020,26 @@
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1023,73 +1055,76 @@
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C4" s="2">
         <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -1107,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E1BAD9-978E-4A10-B8A2-F061C451F088}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,25 +1154,26 @@
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1153,8 +1189,11 @@
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1169,73 +1208,73 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1344,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843FE81B-FB7C-4EA7-BF0A-DE16B1A445B8}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,25 +1395,26 @@
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1390,8 +1430,11 @@
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1403,73 +1446,73 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1578,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E2F09C-1B3C-4616-A2B4-232FE8C2394F}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,25 +1634,26 @@
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="46.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1625,8 +1669,11 @@
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1637,13 +1684,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1653,8 +1700,9 @@
       <c r="C5" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -1664,8 +1712,12 @@
       <c r="C6" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -1675,8 +1727,9 @@
       <c r="C7" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1686,8 +1739,9 @@
       <c r="C8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -1697,8 +1751,9 @@
       <c r="C9" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1708,19 +1763,27 @@
       <c r="C10" s="2">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -1733,46 +1796,58 @@
       <c r="D12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C15" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C16" s="2">
         <v>10</v>
@@ -1780,16 +1855,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C17" s="2">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1879,18 +1954,19 @@
     <hyperlink ref="B17" r:id="rId12" xr:uid="{1CF6FC93-DF4C-4BEA-AAC1-330CDF0AE2F8}"/>
     <hyperlink ref="B16" r:id="rId13" xr:uid="{92BE5979-EA26-42FA-9694-C9C7DB3AC509}"/>
     <hyperlink ref="B11" r:id="rId14" xr:uid="{B5F29DE8-354D-4747-A381-F97F93333D9E}"/>
+    <hyperlink ref="F10" r:id="rId15" xr:uid="{556105BF-F777-4DDA-917A-46E56282839F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8645A614-CAED-4BD0-9C9A-DAD32DBD87CD}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,25 +1976,26 @@
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1934,8 +2011,11 @@
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -1950,7 +2030,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -1965,7 +2045,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -1982,7 +2062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -1994,7 +2074,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -2006,7 +2086,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -2018,7 +2098,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
@@ -2030,25 +2110,25 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Text Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0901B02-6D32-40CD-9D00-248F77503146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAD53C6-BEAC-4643-8E77-0A352DE71D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <t>1 to 10,11,</t>
   </si>
   <si>
-    <t>1 to 20,</t>
-  </si>
-  <si>
     <t>Machine Learning Metrics</t>
   </si>
   <si>
@@ -313,16 +310,19 @@
     <t>1 to 4,16,</t>
   </si>
   <si>
-    <t>31,32,</t>
-  </si>
-  <si>
     <t>Enough</t>
   </si>
   <si>
     <t>1 to 22</t>
   </si>
   <si>
-    <t>1,2,5,</t>
+    <t>1 to 20, 27 to 35,</t>
+  </si>
+  <si>
+    <t>29,31,32,38</t>
+  </si>
+  <si>
+    <t>1 to 6</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,7 +451,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,7 +759,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,20 +772,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -805,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -836,7 +835,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,7 +849,7 @@
         <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1024,20 +1023,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1056,21 +1055,21 @@
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C4" s="2">
         <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -1158,20 +1157,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1190,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,20 +1398,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1431,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,20 +1637,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1670,32 +1669,32 @@
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>7</v>
@@ -1704,10 +1703,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
@@ -1719,10 +1718,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C7" s="2">
         <v>28</v>
@@ -1731,10 +1730,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -1743,10 +1742,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
@@ -1755,28 +1754,28 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C10" s="2">
         <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
@@ -1785,16 +1784,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C12" s="2">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1803,7 +1802,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2">
         <v>23</v>
@@ -1812,59 +1811,59 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="C15" s="2">
         <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C16" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="C17" s="2">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,7 +1962,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8645A614-CAED-4BD0-9C9A-DAD32DBD87CD}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -1980,20 +1979,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2012,172 +2011,102 @@
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C10" s="2">
         <v>33</v>
       </c>
-      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
